--- a/biology/Botanique/Nemaliales/Nemaliales.xlsx
+++ b/biology/Botanique/Nemaliales/Nemaliales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Nemaliales est un ordre d'algues rouges de la sous-classe des Nemaliophycidae, dans la classe des Florideophyceae. 
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 août 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 août 2016) :
 famille des Galaxauraceae P.G.Parkinson
 famille des Liagoraceae Kützing
 famille des Liagoropsidaceae Showe M.Lin, Rodríguez-Prieto &amp; Huisman
 famille des Nemaliaceae (Farlow) De Toni &amp; Levi
 famille des Scinaiaceae J.M.Huisman, J.T.Harper &amp; G.W.Saunders
 famille des Yamadaellaceae Showe M. Lin, Rodríguez-Prieto &amp; Huismann
-Selon BioLib                    (23 août 2016)[2] :
+Selon BioLib                    (23 août 2016) :
 famille des Acrochaetiaceae
 famille des Batrachospermaceae
 famille des Bonnemaisoniaceae
@@ -532,10 +546,10 @@
 famille des Naccariaceae
 famille des Thoreaceae
 famille des Wurdemanniaceae
-Selon ITIS      (23 août 2016)[3] :
+Selon ITIS      (23 août 2016) :
 famille des Galaxauraceae
 famille des Liagoraceae
-Selon World Register of Marine Species                               (23 août 2016)[4] :
+Selon World Register of Marine Species                               (23 août 2016) :
 famille des Chaetangiaceae
 famille des Galaxauraceae P.G. Parkinson, 1983
 famille des Helminthocladiaceae
